--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 36578-2022</t>
+          <t>A 36523-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 36523-2022</t>
+          <t>A 36578-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 36523-2022</t>
+          <t>A 36578-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 36578-2022</t>
+          <t>A 36523-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 36578-2022</t>
+          <t>A 36523-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 36523-2022</t>
+          <t>A 36578-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 36523-2022</t>
+          <t>A 36578-2022</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -625,14 +625,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 36578-2022</t>
+          <t>A 36523-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>

--- a/Översikt VELLINGE.xlsx
+++ b/Översikt VELLINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44804</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44804</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
